--- a/CHECKLIST-ALFA-1/dist/Dados/registos_checklist.xlsx
+++ b/CHECKLIST-ALFA-1/dist/Dados/registos_checklist.xlsx
@@ -43,7 +43,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -60,12 +60,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D9E9F7"/>
         <bgColor rgb="00D9E9F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -95,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -107,15 +101,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -499,18 +484,20 @@
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="8" customWidth="1" min="14" max="14"/>
-    <col width="10" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
-    <col width="14" customWidth="1" min="18" max="18"/>
-    <col width="30" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
+    <col width="12" customWidth="1" min="18" max="18"/>
+    <col width="8" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="30" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -551,60 +538,70 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Tipo RAM</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Config RAM</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Disco</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>GPU</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Teclado</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Ecrã</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Touch Screen</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Wifi</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>LAN</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Webcam</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Microfone</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Portas de Vídeo</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Notas</t>
         </is>
@@ -613,7 +610,7 @@
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>16/02/2026 18:00</t>
+          <t>18/02/2026 13:47</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -648,24 +645,20 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
+          <t>DIMM</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
           <t>SAMSUNG MZVLB1T0HALR-000H2 (954 GB)</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>Intel(R) UHD Graphics | NVIDIA GeForce RTX 3070 Laptop GPU</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
           <t>✓</t>
@@ -701,300 +694,19 @@
           <t>✓</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t>testes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>16/02/2026 21:34</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Guilherme</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>teste checklist</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>HP HP ZBook Studio 15.6 inch G8 Mobile Workstation PC</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CND2224858</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>11th Gen Intel(R) Core(TM) i7-11800H @ 2.30GHz</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>31 GB</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>SAMSUNG MZVLB1T0HALR-000H2 (954 GB)</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>Intel(R) UHD Graphics | NVIDIA GeForce RTX 3070 Laptop GPU</t>
-        </is>
-      </c>
-      <c r="J3" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="L3" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="M3" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="N3" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="O3" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="P3" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="Q3" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="R3" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="S3" s="7" t="inlineStr">
-        <is>
-          <t>Danos para teste</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>16/02/2026 23:37</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Guilherme</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>HP HP ZBook Studio 15.6 inch G8 Mobile Workstation PC</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>CND2224858</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11th Gen Intel(R) Core(TM) i7-11800H @ 2.30GHz</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>31 GB</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>SAMSUNG MZVLB1T0HALR-000H2 (954 GB)</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>Intel(R) UHD Graphics | NVIDIA GeForce RTX 3070 Laptop GPU</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="P4" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>teste</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>18/02/2026 13:21</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Guilherme</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>HP HP ZBook Studio 15.6 inch G8 Mobile Workstation PC</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>CND2224858</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>11th Gen Intel(R) Core(TM) i7-11800H @ 2.30GHz</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>31 GB</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>SAMSUNG MZVLB1T0HALR-000H2 (954 GB)</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>Intel(R) UHD Graphics | NVIDIA GeForce RTX 3070 Laptop GPU</t>
-        </is>
-      </c>
-      <c r="J5" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="M5" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="N5" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="O5" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="P5" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="Q5" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="R5" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="S5" s="7" t="inlineStr">
-        <is>
-          <t>Danos teste</t>
         </is>
       </c>
     </row>
